--- a/AUBRY_Alexis_2_stories_072022.xlsx
+++ b/AUBRY_Alexis_2_stories_072022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf8454ea990e76fa/Documents/GitHub/python-application-design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="8_{A42DF3DB-E1CE-477C-B2CB-ECFBFA615303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9581B4A-1723-4969-8142-B2E33E44B053}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{A42DF3DB-E1CE-477C-B2CB-ECFBFA615303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD956275-99D1-402B-8809-6D3069E373FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4C2BD588-100C-4FB3-99D9-EEE4F543FBA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C2BD588-100C-4FB3-99D9-EEE4F543FBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Elève" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Critères d'acceptation</t>
   </si>
@@ -57,27 +57,12 @@
     <t>Etre connecté</t>
   </si>
   <si>
-    <t>Tableau de bord</t>
-  </si>
-  <si>
-    <t>Avoir des tâches</t>
-  </si>
-  <si>
-    <t>Avoir des évènements</t>
-  </si>
-  <si>
-    <t>Avoir des nouveaux messages</t>
-  </si>
-  <si>
     <t>Gestionnaire de tâches</t>
   </si>
   <si>
     <t>En tant que tuteur je peux</t>
   </si>
   <si>
-    <t>Sélectionner une tâche</t>
-  </si>
-  <si>
     <t>Avoir les droits administrateur</t>
   </si>
   <si>
@@ -105,48 +90,15 @@
     <t xml:space="preserve"> réintitialiser mon mot de passe</t>
   </si>
   <si>
-    <t xml:space="preserve"> accéder à la page Tableau de bord</t>
-  </si>
-  <si>
     <t xml:space="preserve"> voir mes tâches</t>
   </si>
   <si>
     <t xml:space="preserve"> voir si j'ai des nouveaux messages</t>
   </si>
   <si>
-    <t xml:space="preserve"> accéder à ma page Gestion des tâches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> accéder à ma page Calendrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> accéder à ma page de Chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> me déconnecter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> créer une tâche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> supprimer une tâche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> modifier une tâche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> valider une tâche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> accéder à la page "Tableau de bord"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> voir mon calendrier</t>
   </si>
   <si>
-    <t xml:space="preserve"> revenir sur la page précédente</t>
-  </si>
-  <si>
     <t xml:space="preserve"> créer une nouvelle conversation</t>
   </si>
   <si>
@@ -159,9 +111,6 @@
     <t>Ne pas être connecté</t>
   </si>
   <si>
-    <t>informations nécessaires (nom, prénom, email, élève ou tuteur, mot de passe)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> voir mes prochains évènements</t>
   </si>
   <si>
@@ -180,9 +129,6 @@
     <t>accéder à la page Gestion des tâches</t>
   </si>
   <si>
-    <t>Sélectionner un jour du calendrier</t>
-  </si>
-  <si>
     <t>voir les tâches pour un élève</t>
   </si>
   <si>
@@ -192,7 +138,34 @@
     <t xml:space="preserve"> supprimer une tâche d'un élève</t>
   </si>
   <si>
-    <t>Avoir un ou plusieurs élèves affectés par l'administrateur</t>
+    <t>ajouter un contact à ma liste de contact</t>
+  </si>
+  <si>
+    <t>supprimer un contact de ma liste de contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accéder à la page Accueil</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gérer une tâche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accéder aux autres pages</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>accéder à un évènement</t>
+  </si>
+  <si>
+    <t>informations (nom, prénom, email, élève ou tuteur, mot de passe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gérer une tâche</t>
   </si>
 </sst>
 </file>
@@ -385,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,23 +366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,23 +378,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,12 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +399,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9529572-84A3-47B8-B59D-722CF5286B08}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,271 +763,424 @@
     <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="29" width="11.5546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12" t="s">
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:29" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="17" t="s">
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="C22" s="5"/>
+      <c r="AC22"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="20" t="s">
+      <c r="C23" s="5"/>
+      <c r="AC23"/>
+    </row>
+    <row r="24" spans="1:29" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
+  <mergeCells count="6">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1059,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626B4CFA-A531-4387-BA7F-411C005B4F81}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,304 +1200,461 @@
     <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="28" width="11.5546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="17" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="20" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A29"/>
+  <mergeCells count="6">
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A21:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1378,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90995C20-45C0-4B01-8D17-4F337A86CEF3}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,32 +1677,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
+      <c r="A3" s="30"/>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
